--- a/sitesList.xlsx
+++ b/sitesList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\soup\newsLookup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\newsLookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4127D6A-86F4-49FF-ADCB-933C999B557A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9001163F-D5C7-4FD4-B00E-F97D3574A5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F160C7A-0BCA-4034-80A2-0051517C8CB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F160C7A-0BCA-4034-80A2-0051517C8CB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>https://www.wsj.com/</t>
   </si>
@@ -43,9 +43,6 @@
     <t>https://www.huffpost.com/</t>
   </si>
   <si>
-    <t>https://www.washingtonpost.com/</t>
-  </si>
-  <si>
     <t>https://www.reuters.com/</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>https://www.wenweipo.com/</t>
   </si>
   <si>
-    <t>https://www.nextdigital.com.hk/</t>
-  </si>
-  <si>
     <t>https://www.krt.com.hk/</t>
   </si>
   <si>
@@ -320,6 +314,93 @@
   </si>
   <si>
     <t>https://www.fair.org/</t>
+  </si>
+  <si>
+    <t>https://news.google.com/home?gl=US&amp;hl=en-US&amp;ceid=US:en</t>
+  </si>
+  <si>
+    <t>https://timesofindia.indiatimes.com/</t>
+  </si>
+  <si>
+    <t>https://nypost.com/</t>
+  </si>
+  <si>
+    <t>https://people.com/</t>
+  </si>
+  <si>
+    <t>https://www.news18.com/</t>
+  </si>
+  <si>
+    <t>https://www.ndtv.com/</t>
+  </si>
+  <si>
+    <t>https://fair.org/</t>
+  </si>
+  <si>
+    <t>https://www.propublica.org/</t>
+  </si>
+  <si>
+    <t>https://www.csmonitor.com/</t>
+  </si>
+  <si>
+    <t>https://www.newyorker.com/culture</t>
+  </si>
+  <si>
+    <t>https://www.vice.com/en?locale=en_us</t>
+  </si>
+  <si>
+    <t>https://www.ozy.com/</t>
+  </si>
+  <si>
+    <t>https://www.cbc.ca/news?cmp=rss</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/</t>
+  </si>
+  <si>
+    <t>https://www.marketwatch.com/</t>
+  </si>
+  <si>
+    <t>https://theintercept.com/</t>
+  </si>
+  <si>
+    <t>https://qz.com/</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news</t>
+  </si>
+  <si>
+    <t>https://www.democracynow.org/</t>
+  </si>
+  <si>
+    <t>https://www.axios.com/top</t>
+  </si>
+  <si>
+    <t>https://abcnews.go.com/538</t>
+  </si>
+  <si>
+    <t>https://www.foreignaffairs.com/</t>
+  </si>
+  <si>
+    <t>https://www.theatlantic.com/world/</t>
+  </si>
+  <si>
+    <t>https://www.nfl.com/</t>
+  </si>
+  <si>
+    <t>https://mashable.com/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/</t>
+  </si>
+  <si>
+    <t>https://thinkprogress.org/</t>
+  </si>
+  <si>
+    <t>https://thenextweb.com/</t>
+  </si>
+  <si>
+    <t>https://gizmodo.com/</t>
   </si>
 </sst>
 </file>
@@ -680,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14B5153-010A-4097-B788-1D35BB2BCC3F}">
-  <dimension ref="A1:C914"/>
+  <dimension ref="A1:C913"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +793,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <f>COUNTIF(A:A,A3)</f>
@@ -721,7 +802,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <f>COUNTIF(A:A,A4)</f>
@@ -730,7 +811,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <f>COUNTIF(A:A,A5)</f>
@@ -739,7 +820,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <f>COUNTIF(A:A,A6)</f>
@@ -748,7 +829,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <f>COUNTIF(A:A,A7)</f>
@@ -757,7 +838,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <f>COUNTIF(A:A,A8)</f>
@@ -766,7 +847,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <f>COUNTIF(A:A,A9)</f>
@@ -775,7 +856,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <f>COUNTIF(A:A,A10)</f>
@@ -784,7 +865,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <f>COUNTIF(A:A,A11)</f>
@@ -793,7 +874,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <f>COUNTIF(A:A,A12)</f>
@@ -802,7 +883,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <f>COUNTIF(A:A,A13)</f>
@@ -811,7 +892,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <f>COUNTIF(A:A,A14)</f>
@@ -820,7 +901,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <f>COUNTIF(A:A,A15)</f>
@@ -829,7 +910,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <f>COUNTIF(A:A,A16)</f>
@@ -838,7 +919,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <f>COUNTIF(A:A,A17)</f>
@@ -847,7 +928,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <f>COUNTIF(A:A,A18)</f>
@@ -856,7 +937,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <f>COUNTIF(A:A,A19)</f>
@@ -865,7 +946,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <f>COUNTIF(A:A,A20)</f>
@@ -874,7 +955,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <f>COUNTIF(A:A,A21)</f>
@@ -883,7 +964,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <f>COUNTIF(A:A,A22)</f>
@@ -892,7 +973,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <f>COUNTIF(A:A,A23)</f>
@@ -901,7 +982,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <f>COUNTIF(A:A,A24)</f>
@@ -910,7 +991,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <f>COUNTIF(A:A,A25)</f>
@@ -919,7 +1000,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <f>COUNTIF(A:A,A26)</f>
@@ -928,7 +1009,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <f>COUNTIF(A:A,A27)</f>
@@ -937,7 +1018,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <f>COUNTIF(A:A,A28)</f>
@@ -946,7 +1027,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <f>COUNTIF(A:A,A29)</f>
@@ -955,7 +1036,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <f>COUNTIF(A:A,A30)</f>
@@ -964,7 +1045,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <f>COUNTIF(A:A,A31)</f>
@@ -973,7 +1054,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <f>COUNTIF(A:A,A32)</f>
@@ -982,7 +1063,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <f>COUNTIF(A:A,A33)</f>
@@ -991,7 +1072,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <f>COUNTIF(A:A,A34)</f>
@@ -1000,7 +1081,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <f>COUNTIF(A:A,A35)</f>
@@ -1009,7 +1090,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <f>COUNTIF(A:A,A36)</f>
@@ -1018,7 +1099,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <f>COUNTIF(A:A,A37)</f>
@@ -1027,7 +1108,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <f>COUNTIF(A:A,A38)</f>
@@ -1036,7 +1117,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <f>COUNTIF(A:A,A39)</f>
@@ -1045,7 +1126,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <f>COUNTIF(A:A,A40)</f>
@@ -1054,7 +1135,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <f>COUNTIF(A:A,A41)</f>
@@ -1063,7 +1144,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <f>COUNTIF(A:A,A42)</f>
@@ -1072,7 +1153,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <f>COUNTIF(A:A,A43)</f>
@@ -1135,7 +1216,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <f>COUNTIF(A:A,A50)</f>
@@ -1144,7 +1225,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <f>COUNTIF(A:A,A51)</f>
@@ -1153,7 +1234,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C52">
         <f>COUNTIF(A:A,A52)</f>
@@ -1180,7 +1261,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C55">
         <f>COUNTIF(A:A,A55)</f>
@@ -1189,7 +1270,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C56">
         <f>COUNTIF(A:A,A56)</f>
@@ -1198,7 +1279,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <f>COUNTIF(A:A,A57)</f>
@@ -1207,7 +1288,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C58">
         <f>COUNTIF(A:A,A58)</f>
@@ -1216,7 +1297,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <f>COUNTIF(A:A,A59)</f>
@@ -1234,7 +1315,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C61">
         <f>COUNTIF(A:A,A61)</f>
@@ -1243,7 +1324,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <f>COUNTIF(A:A,A62)</f>
@@ -1297,7 +1378,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C68">
         <f>COUNTIF(A:A,A68)</f>
@@ -1306,7 +1387,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C69">
         <f>COUNTIF(A:A,A69)</f>
@@ -1369,7 +1450,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <f>COUNTIF(A:A,A76)</f>
@@ -1387,7 +1468,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C78">
         <f>COUNTIF(A:A,A78)</f>
@@ -1396,7 +1477,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C79">
         <f>COUNTIF(A:A,A79)</f>
@@ -1405,7 +1486,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <f>COUNTIF(A:A,A80)</f>
@@ -1414,7 +1495,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <f>COUNTIF(A:A,A81)</f>
@@ -1423,7 +1504,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <f>COUNTIF(A:A,A82)</f>
@@ -1432,7 +1513,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <f>COUNTIF(A:A,A83)</f>
@@ -1441,7 +1522,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C84">
         <f>COUNTIF(A:A,A84)</f>
@@ -1450,7 +1531,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C85">
         <f>COUNTIF(A:A,A85)</f>
@@ -1459,7 +1540,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C86">
         <f>COUNTIF(A:A,A86)</f>
@@ -1468,7 +1549,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C87">
         <f>COUNTIF(A:A,A87)</f>
@@ -1477,7 +1558,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88">
         <f>COUNTIF(A:A,A88)</f>
@@ -1486,7 +1567,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89">
         <f>COUNTIF(A:A,A89)</f>
@@ -1495,7 +1576,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90">
         <f>COUNTIF(A:A,A90)</f>
@@ -1504,7 +1585,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91">
         <f>COUNTIF(A:A,A91)</f>
@@ -1521,216 +1602,297 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
       <c r="C93">
         <f>COUNTIF(A:A,A93)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
       <c r="C94">
         <f>COUNTIF(A:A,A94)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
       <c r="C95">
         <f>COUNTIF(A:A,A95)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
       <c r="C96">
         <f>COUNTIF(A:A,A96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
       <c r="C97">
         <f>COUNTIF(A:A,A97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
       <c r="C98">
         <f>COUNTIF(A:A,A98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
       <c r="C99">
         <f>COUNTIF(A:A,A99)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
       <c r="C100">
         <f>COUNTIF(A:A,A100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
       <c r="C101">
         <f>COUNTIF(A:A,A101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
       <c r="C102">
         <f>COUNTIF(A:A,A102)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
       <c r="C103">
         <f>COUNTIF(A:A,A103)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
       <c r="C104">
         <f>COUNTIF(A:A,A104)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
       <c r="C105">
         <f>COUNTIF(A:A,A105)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
       <c r="C106">
         <f>COUNTIF(A:A,A106)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
       <c r="C107">
         <f>COUNTIF(A:A,A107)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
       <c r="C108">
         <f>COUNTIF(A:A,A108)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
       <c r="C109">
         <f>COUNTIF(A:A,A109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
       <c r="C110">
         <f>COUNTIF(A:A,A110)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
       <c r="C111">
         <f>COUNTIF(A:A,A111)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
       <c r="C112">
         <f>COUNTIF(A:A,A112)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>121</v>
+      </c>
       <c r="C113">
         <f>COUNTIF(A:A,A113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
       <c r="C114">
         <f>COUNTIF(A:A,A114)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
       <c r="C115">
         <f>COUNTIF(A:A,A115)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
       <c r="C116">
         <f>COUNTIF(A:A,A116)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>113</v>
+      </c>
       <c r="C117">
         <f>COUNTIF(A:A,A117)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
       <c r="C118">
         <f>COUNTIF(A:A,A118)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>115</v>
+      </c>
       <c r="C119">
         <f>COUNTIF(A:A,A119)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C120">
         <f>COUNTIF(A:A,A120)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C121">
         <f>COUNTIF(A:A,A121)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C122">
         <f>COUNTIF(A:A,A122)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C123">
         <f>COUNTIF(A:A,A123)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C124">
         <f>COUNTIF(A:A,A124)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C125">
         <f>COUNTIF(A:A,A125)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C126">
         <f>COUNTIF(A:A,A126)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C127">
         <f>COUNTIF(A:A,A127)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C128">
         <f>COUNTIF(A:A,A128)</f>
         <v>0</v>
@@ -6443,12 +6605,6 @@
     <row r="913" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C913">
         <f>COUNTIF(A:A,A913)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="914" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C914">
-        <f>COUNTIF(A:A,A914)</f>
         <v>0</v>
       </c>
     </row>
@@ -6473,17 +6629,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
